--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.271293674222579</v>
+        <v>0.05925133333333333</v>
       </c>
       <c r="H2">
-        <v>0.271293674222579</v>
+        <v>0.177754</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.129311749608618</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.129311749608618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.35314450536564</v>
+        <v>4.675378666666666</v>
       </c>
       <c r="N2">
-        <v>2.35314450536564</v>
+        <v>14.026136</v>
       </c>
       <c r="O2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="P2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="Q2">
-        <v>0.6383932188373177</v>
+        <v>0.2770224198382222</v>
       </c>
       <c r="R2">
-        <v>0.6383932188373177</v>
+        <v>2.493201778544</v>
       </c>
       <c r="S2">
-        <v>0.02000293870671408</v>
+        <v>0.004761212681720937</v>
       </c>
       <c r="T2">
-        <v>0.02000293870671408</v>
+        <v>0.004761212681720937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.271293674222579</v>
+        <v>0.05925133333333333</v>
       </c>
       <c r="H3">
-        <v>0.271293674222579</v>
+        <v>0.177754</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.129311749608618</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.129311749608618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.7364127242719</v>
+        <v>82.95722966666666</v>
       </c>
       <c r="N3">
-        <v>82.7364127242719</v>
+        <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="P3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="Q3">
-        <v>22.44586539996346</v>
+        <v>4.915326467389555</v>
       </c>
       <c r="R3">
-        <v>22.44586539996346</v>
+        <v>44.237938206506</v>
       </c>
       <c r="S3">
-        <v>0.7033020661346315</v>
+        <v>0.08448021905591882</v>
       </c>
       <c r="T3">
-        <v>0.7033020661346315</v>
+        <v>0.08448021905591882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.05925133333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.177754</v>
+      </c>
+      <c r="I4">
+        <v>0.129311749608618</v>
+      </c>
+      <c r="J4">
+        <v>0.129311749608618</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>39.34793966666667</v>
+      </c>
+      <c r="N4">
+        <v>118.043819</v>
+      </c>
+      <c r="O4">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="P4">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="Q4">
+        <v>2.331417889169555</v>
+      </c>
+      <c r="R4">
+        <v>20.982761002526</v>
+      </c>
+      <c r="S4">
+        <v>0.04007031787097821</v>
+      </c>
+      <c r="T4">
+        <v>0.04007031787097821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.398954</v>
+      </c>
+      <c r="H5">
+        <v>1.196862</v>
+      </c>
+      <c r="I5">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="J5">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.675378666666666</v>
+      </c>
+      <c r="N5">
+        <v>14.026136</v>
+      </c>
+      <c r="O5">
+        <v>0.03681964474327726</v>
+      </c>
+      <c r="P5">
+        <v>0.03681964474327726</v>
+      </c>
+      <c r="Q5">
+        <v>1.865261020581333</v>
+      </c>
+      <c r="R5">
+        <v>16.787349185232</v>
+      </c>
+      <c r="S5">
+        <v>0.03205843206155633</v>
+      </c>
+      <c r="T5">
+        <v>0.03205843206155633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.271293674222579</v>
-      </c>
-      <c r="H4">
-        <v>0.271293674222579</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>32.5503825745971</v>
-      </c>
-      <c r="N4">
-        <v>32.5503825745971</v>
-      </c>
-      <c r="O4">
-        <v>0.2766949951586544</v>
-      </c>
-      <c r="P4">
-        <v>0.2766949951586544</v>
-      </c>
-      <c r="Q4">
-        <v>8.830712886013059</v>
-      </c>
-      <c r="R4">
-        <v>8.830712886013059</v>
-      </c>
-      <c r="S4">
-        <v>0.2766949951586544</v>
-      </c>
-      <c r="T4">
-        <v>0.2766949951586544</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.398954</v>
+      </c>
+      <c r="H6">
+        <v>1.196862</v>
+      </c>
+      <c r="I6">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="J6">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>82.95722966666666</v>
+      </c>
+      <c r="N6">
+        <v>248.871689</v>
+      </c>
+      <c r="O6">
+        <v>0.653306596744776</v>
+      </c>
+      <c r="P6">
+        <v>0.653306596744776</v>
+      </c>
+      <c r="Q6">
+        <v>33.09611860443533</v>
+      </c>
+      <c r="R6">
+        <v>297.8650674399181</v>
+      </c>
+      <c r="S6">
+        <v>0.5688263776888572</v>
+      </c>
+      <c r="T6">
+        <v>0.5688263776888572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.398954</v>
+      </c>
+      <c r="H7">
+        <v>1.196862</v>
+      </c>
+      <c r="I7">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="J7">
+        <v>0.8706882503913821</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>39.34793966666667</v>
+      </c>
+      <c r="N7">
+        <v>118.043819</v>
+      </c>
+      <c r="O7">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="P7">
+        <v>0.3098737585119468</v>
+      </c>
+      <c r="Q7">
+        <v>15.69801792177534</v>
+      </c>
+      <c r="R7">
+        <v>141.282161295978</v>
+      </c>
+      <c r="S7">
+        <v>0.2698034406409686</v>
+      </c>
+      <c r="T7">
+        <v>0.2698034406409686</v>
       </c>
     </row>
   </sheetData>
